--- a/data/inpatient_sep_dec_25.xlsx
+++ b/data/inpatient_sep_dec_25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavierorcutt/Dropbox/chinle-primarycare-scheduler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{616A9047-AF3E-D34F-86E7-1577E33F6CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFC549E-C0AE-4843-9797-1AFB1965C00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{AAB0B14D-62E8-3640-B7C0-7BC58427BBFC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{AAB0B14D-62E8-3640-B7C0-7BC58427BBFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
